--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--ART-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--ART-.xlsx
@@ -113,7 +113,7 @@
     <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas.</t>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas ordenado pelo numero da diaria em ordem crescente.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>

--- a/output/xlsx/UC005 - Listar Empenhos Pendentes--ART-.xlsx
+++ b/output/xlsx/UC005 - Listar Empenhos Pendentes--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela de listagem de empenhos</t>
+    <t>O usuário devidamente autenticado e na tela de listagem de empenhos.</t>
   </si>
   <si>
     <t>#</t>
@@ -95,7 +95,7 @@
     <t>Chefe/Beneficiário Clica para que o sistema exiba detalhes da solicitação da diária.</t>
   </si>
   <si>
-    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Recupera e exibe todos os detalhes (dados) da solicitação para o usuário; e Apresenta a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC2</t>
@@ -113,7 +113,7 @@
     <t>Chefe/Beneficiário Clica para exibir a lista de solicitações aguardando empenho.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas ordenado pelo numero da diaria em ordem crescente.</t>
+    <t>SYSTEM Exibe a lista de solicitações aguardando serem empenhadas, de todos os servidores, ordenado pelo número da diária em ordem crescente.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
@@ -128,13 +128,13 @@
     <t>Chefe/Beneficiário Clica para realizar o empenho de uma diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Registrar Empenho</t>
+    <t>SYSTEM Apresenta a tela de Registrar Empenho.</t>
   </si>
   <si>
     <t>TC5</t>
   </si>
   <si>
-    <t>Chefe/Beneficiário filtra a listagem por registros cujos beneficiários não possuem número do credor</t>
+    <t>Chefe/Beneficiário Filtra a listagem por registros cujos beneficiários não possuem número do credor.</t>
   </si>
   <si>
     <t>SYSTEM Identifica que a partir da listagem, registros cujos beneficiários não possuem número do credor; e  			Habilita a opção (por meio de item de tela) para que o usuário possa informar (individualmente) um número de credor para um beneficiário.</t>
